--- a/patient_info_temp.xlsx
+++ b/patient_info_temp.xlsx
@@ -3,25 +3,32 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8892" windowWidth="20916" xWindow="348" yWindow="348"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,7 +56,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
@@ -412,13 +419,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col customWidth="1" max="5" min="5" width="16.6640625"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -525,7 +535,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>xb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -535,29 +545,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>1999/07/13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-01 00:00</t>
+          <t>2021/11/01 00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -568,7 +572,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>xb</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -578,29 +582,48 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>1999/07/13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2019-10-01 00:00</t>
+          <t>2021/11/01 00:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
+          <t>息肉</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>单个</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>&lt;5mm</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>右半结肠（包括：回盲部、升结肠、横结肠右半）</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>有蒂</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>炎性息肉</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -611,7 +634,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>xb</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -621,29 +644,53 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>1999/07/13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2019-10-01 00:00</t>
+          <t>2021/11/01 00:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
+          <t>癌</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>单个</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>高分化</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>乳头状</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>肿块型</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>腺癌</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>左半结肠</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -654,7 +701,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>xb</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,17 +711,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>1999/07/13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2019-10-01 00:00</t>
+          <t>2022/01/03 00:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -682,22 +729,28 @@
           <t>正常</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>xbg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -707,40 +760,34 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>1997/07/01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2019-10-01 00:00</t>
+          <t>2021/11/01 00:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>bnn</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -750,40 +797,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>1995/03/09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2019-10-01 00:00</t>
+          <t>2021/12/01 10:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>ghn</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -793,60 +834,54 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2001-01-01</t>
+          <t>1997/05/10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2019-10-01 00:00</t>
+          <t>2021/12/01 10:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>正常</t>
         </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>goo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2002-01-01</t>
+          <t>2013/01/01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2015-10-01 00:00</t>
+          <t>2021/10/01 00:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -858,32 +893,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>xc</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2002-01-01</t>
+          <t>1997/01/01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2015-10-01 00:00</t>
+          <t>2021/10/01 00:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -895,32 +930,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>txx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>男性</t>
+          <t>女性</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2002-01-01</t>
+          <t>1996/01/01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2015-10-01 00:00</t>
+          <t>2017/12/01 00:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -932,12 +967,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>xvz</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -947,17 +982,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2002-01-01</t>
+          <t>2003/01/01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2015-10-01 00:00</t>
+          <t>2021/12/01 00:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -969,12 +1004,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>df</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -984,17 +1019,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2002-01-01</t>
+          <t>1997/01/01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2015-10-01 00:00</t>
+          <t>2021/10/07 00:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1006,12 +1041,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>onl</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1021,17 +1056,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2002-01-01</t>
+          <t>1996/01/01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2015-10-01 00:00</t>
+          <t>2021/07/01 00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1043,12 +1078,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,17 +1093,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2002-01-01</t>
+          <t>1995/01/01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2015-10-01 00:00</t>
+          <t>2017/10/01 00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1080,12 +1115,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>jk</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1095,17 +1130,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2002-01-01</t>
+          <t>1997/01/01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2015-10-01 00:00</t>
+          <t>2017/10/01 00:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1117,12 +1152,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>gh</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1132,17 +1167,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2002-01-01</t>
+          <t>1997/01/01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2015-10-01 00:00</t>
+          <t>2019/10/01 00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1154,12 +1189,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ad</t>
+          <t>vb</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1169,38 +1204,101 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1997/01/01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2018/10/01 00:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2002-01-01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2015-10-01 00:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>bnn</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1996/01/01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2016/10/08 00:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>女性</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1999/01/11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021/10/01 00:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/patient_info_temp.xlsx
+++ b/patient_info_temp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8892" windowWidth="20916" xWindow="348" yWindow="348"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -419,10 +419,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -729,18 +729,6 @@
           <t>正常</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1078,12 +1066,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>ndm</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1093,209 +1081,56 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1995/01/01</t>
+          <t>1997/01/01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2017/10/01 00:00</t>
+          <t>2021/10/01 00:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>jk</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>男性</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1997/01/01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2017/10/01 00:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>gh</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>男性</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1997/01/01</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2019/10/01 00:00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>vb</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>男性</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1997/01/01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2018/10/01 00:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>bnn</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>女性</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1996/01/01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2016/10/08 00:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>cnn</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>女性</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1999/01/11</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2021/10/01 00:00</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
+          <t>息肉</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>单个</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>&lt;5mm</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>右半结肠（包括：回盲部、升结肠、横结肠右半）</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>有蒂</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>癌</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
